--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_9_3.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_9_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,342 +478,342 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_9_3_22</t>
+          <t>model_9_3_12</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7042716109365172</v>
+        <v>-0.4815702885590147</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01427972232450347</v>
+        <v>-15.99720160848214</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3671620624087669</v>
+        <v>-10.04781711999013</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3453415690490015</v>
+        <v>-11.83924151271215</v>
       </c>
       <c r="F2" t="n">
-        <v>0.327284187078476</v>
+        <v>1.63966178894043</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4663113057613373</v>
+        <v>5.129796981811523</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4002765417099</v>
+        <v>5.164009094238281</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9058243036270142</v>
+        <v>5.145896911621094</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_9_3_23</t>
+          <t>model_9_3_11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7044498655401177</v>
+        <v>-0.4596741393442021</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.006631967186604637</v>
+        <v>-17.02915414119099</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3661415258842036</v>
+        <v>-8.650423278569177</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3407883474577917</v>
+        <v>-11.48371315024235</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3270868957042694</v>
+        <v>1.615429162979126</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4762039184570312</v>
+        <v>5.441243171691895</v>
       </c>
       <c r="H3" t="n">
-        <v>1.40253472328186</v>
+        <v>4.510834693908691</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9121244549751282</v>
+        <v>5.003402709960938</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_9_3_21</t>
+          <t>model_9_3_10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7045443029377934</v>
+        <v>-0.4470424457085991</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03536342022599603</v>
+        <v>-17.60570524260995</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3700101760764647</v>
+        <v>-7.892471760701275</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3513010884661677</v>
+        <v>-11.29757912506017</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3269824087619781</v>
+        <v>1.601449608802795</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4563373029232025</v>
+        <v>5.61524772644043</v>
       </c>
       <c r="H4" t="n">
-        <v>1.393974542617798</v>
+        <v>4.15654993057251</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8975784182548523</v>
+        <v>4.928801536560059</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_9_3_20</t>
+          <t>model_9_3_9</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7053087269027816</v>
+        <v>-0.1987306924556365</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05561306367976493</v>
+        <v>-13.55199367819378</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3748472039634364</v>
+        <v>-6.657028950360103</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3586062002421847</v>
+        <v>-9.003521463305455</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3261363804340363</v>
+        <v>1.32664167881012</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4467578530311584</v>
+        <v>4.391827583312988</v>
       </c>
       <c r="H5" t="n">
-        <v>1.38327169418335</v>
+        <v>3.57907509803772</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8874707221984863</v>
+        <v>4.009356021881104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_9_3_19</t>
+          <t>model_9_3_8</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7067710478676938</v>
+        <v>-0.1289760336038486</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07519079575369902</v>
+        <v>-12.31325148276143</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3821655825418442</v>
+        <v>-6.285733118579742</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3676575297608951</v>
+        <v>-8.305918316872335</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3245180547237396</v>
+        <v>1.249443888664246</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4374963045120239</v>
+        <v>4.017971515655518</v>
       </c>
       <c r="H6" t="n">
-        <v>1.367078304290771</v>
+        <v>3.40552282333374</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8749467134475708</v>
+        <v>3.729760885238647</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_9_3_18</t>
+          <t>model_9_3_1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7085244616875265</v>
+        <v>-0.1075053005549194</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09565415107701603</v>
+        <v>-9.65189943724573</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3909301573234113</v>
+        <v>-4.078260566676644</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3779572874176435</v>
+        <v>-6.033458361419521</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3225775361061096</v>
+        <v>1.225682020187378</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4278157949447632</v>
+        <v>3.214769601821899</v>
       </c>
       <c r="H7" t="n">
-        <v>1.347685098648071</v>
+        <v>2.373698234558105</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8606953620910645</v>
+        <v>2.818971395492554</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_9_3_24</t>
+          <t>model_9_3_22</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7099846450886573</v>
+        <v>-0.08531816016939442</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2379627269517612</v>
+        <v>-12.21307573077441</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3850925945141489</v>
+        <v>-7.25751964104613</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3131785214579922</v>
+        <v>-8.799321570937655</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3209615647792816</v>
+        <v>1.201127290725708</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5856387615203857</v>
+        <v>3.987738609313965</v>
       </c>
       <c r="H8" t="n">
-        <v>1.360601782798767</v>
+        <v>3.859758377075195</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9503270387649536</v>
+        <v>3.92751407623291</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_9_3_17</t>
+          <t>model_9_3_21</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7106419326066484</v>
+        <v>-0.08143757889779324</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1135819666379341</v>
+        <v>-12.22165177946186</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4011822047315952</v>
+        <v>-7.15173724520813</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3889172930303456</v>
+        <v>-8.744683513920869</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3202341198921204</v>
+        <v>1.196832656860352</v>
       </c>
       <c r="G9" t="n">
-        <v>0.41933473944664</v>
+        <v>3.990326881408691</v>
       </c>
       <c r="H9" t="n">
-        <v>1.325000405311584</v>
+        <v>3.81031322479248</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8455303907394409</v>
+        <v>3.905615329742432</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_9_3_16</t>
+          <t>model_9_3_23</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7124798881194073</v>
+        <v>-0.08020733176338002</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1287191807038782</v>
+        <v>-12.18883391163021</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4113601415583907</v>
+        <v>-7.213352206133736</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3993167202496165</v>
+        <v>-8.76541414280036</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3182000517845154</v>
+        <v>1.195471167564392</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4121738374233246</v>
+        <v>3.980422496795654</v>
       </c>
       <c r="H10" t="n">
-        <v>1.30247974395752</v>
+        <v>3.839113712310791</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8311411142349243</v>
+        <v>3.913923740386963</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_9_3_15</t>
+          <t>model_9_3_18</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7129912057072387</v>
+        <v>-0.07750576280355759</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1399640121598206</v>
+        <v>-11.24811659983113</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4180444796500563</v>
+        <v>-7.658826208379734</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4063821501429429</v>
+        <v>-8.634881628396727</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3176341354846954</v>
+        <v>1.192481279373169</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4068542718887329</v>
+        <v>3.696511507034302</v>
       </c>
       <c r="H11" t="n">
-        <v>1.287689328193665</v>
+        <v>4.047338485717773</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8213649392127991</v>
+        <v>3.861607313156128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_9_3_14</t>
+          <t>model_9_3_20</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7138797896932971</v>
+        <v>-0.07246103768415368</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1564056120733477</v>
+        <v>-11.56533692963427</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4276425617653716</v>
+        <v>-7.47091012383104</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4165814319280546</v>
+        <v>-8.658213722510562</v>
       </c>
       <c r="F12" t="n">
-        <v>0.316650778055191</v>
+        <v>1.186898350715637</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3990763127803802</v>
+        <v>3.792249441146851</v>
       </c>
       <c r="H12" t="n">
-        <v>1.266451716423035</v>
+        <v>3.959502220153809</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8072526454925537</v>
+        <v>3.870958566665649</v>
       </c>
     </row>
     <row r="13">
@@ -823,183 +823,183 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7142275773219955</v>
+        <v>-0.06527118762241058</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1632948050364372</v>
+        <v>-10.34297128291709</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4374750365271295</v>
+        <v>-7.79982437057752</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4252275240810864</v>
+        <v>-8.351422833027877</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3162658512592316</v>
+        <v>1.178941369056702</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3958172500133514</v>
+        <v>3.423336744308472</v>
       </c>
       <c r="H13" t="n">
-        <v>1.244695425033569</v>
+        <v>4.113244533538818</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7952894568443298</v>
+        <v>3.747998476028442</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_9_3_12</t>
+          <t>model_9_3_14</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7154231286152893</v>
+        <v>-0.05672633646216574</v>
       </c>
       <c r="C14" t="n">
-        <v>0.176022940582093</v>
+        <v>-10.16030449279204</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4479781858653394</v>
+        <v>-7.823599885829825</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4354354546185705</v>
+        <v>-8.291650437899188</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3149427771568298</v>
+        <v>1.169484734535217</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3897959887981415</v>
+        <v>3.368206977844238</v>
       </c>
       <c r="H14" t="n">
-        <v>1.221455216407776</v>
+        <v>4.1243577003479</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7811650633811951</v>
+        <v>3.724042177200317</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_9_3_11</t>
+          <t>model_9_3_15</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7185272674020575</v>
+        <v>-0.05513473165281835</v>
       </c>
       <c r="C15" t="n">
-        <v>0.184409110232861</v>
+        <v>-10.32213043405362</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4662977163145594</v>
+        <v>-7.761754724044282</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4507397023188061</v>
+        <v>-8.322221374085569</v>
       </c>
       <c r="F15" t="n">
-        <v>0.311507374048233</v>
+        <v>1.167723298072815</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3858287930488586</v>
+        <v>3.417046546936035</v>
       </c>
       <c r="H15" t="n">
-        <v>1.180919766426086</v>
+        <v>4.095449924468994</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7599892616271973</v>
+        <v>3.736294984817505</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_9_3_10</t>
+          <t>model_9_3_17</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7251969088423011</v>
+        <v>-0.05507444295549524</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1888865598522242</v>
+        <v>-10.36031082621072</v>
       </c>
       <c r="D16" t="n">
-        <v>0.497964654825592</v>
+        <v>-7.79830500027084</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4753808574507484</v>
+        <v>-8.357500015674322</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3041260242462158</v>
+        <v>1.167656540870667</v>
       </c>
       <c r="G16" t="n">
-        <v>0.383710652589798</v>
+        <v>3.428569793701172</v>
       </c>
       <c r="H16" t="n">
-        <v>1.11085045337677</v>
+        <v>4.112534523010254</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7258942723274231</v>
+        <v>3.750433921813965</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_9_3_9</t>
+          <t>model_9_3_16</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7355003673050515</v>
+        <v>-0.05503169369445415</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1857983087208124</v>
+        <v>-10.38705592081347</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5437737906733504</v>
+        <v>-7.756997988770578</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5092954349805988</v>
+        <v>-8.345490658553175</v>
       </c>
       <c r="F17" t="n">
-        <v>0.292723149061203</v>
+        <v>1.167609214782715</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3851715922355652</v>
+        <v>3.436641216278076</v>
       </c>
       <c r="H17" t="n">
-        <v>1.009488940238953</v>
+        <v>4.093226432800293</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6789679527282715</v>
+        <v>3.745621204376221</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_9_3_8</t>
+          <t>model_9_3_19</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7481377446345694</v>
+        <v>-0.0530942086714723</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1758135246231866</v>
+        <v>-10.94162774139916</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6000667257749489</v>
+        <v>-7.53878941091344</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5498512510399769</v>
+        <v>-8.446817885938296</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2787373065948486</v>
+        <v>1.165464997291565</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3898950815200806</v>
+        <v>3.604012489318848</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8849298357963562</v>
+        <v>3.991230487823486</v>
       </c>
       <c r="I18" t="n">
-        <v>0.622852623462677</v>
+        <v>3.786232471466064</v>
       </c>
     </row>
     <row r="19">
@@ -1009,28 +1009,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7621554620904465</v>
+        <v>-0.04108163239206974</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1592787245030512</v>
+        <v>-10.80183556860581</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6626623412273642</v>
+        <v>-5.691914686328423</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5939644101574852</v>
+        <v>-7.377489101036756</v>
       </c>
       <c r="F19" t="n">
-        <v>0.263223797082901</v>
+        <v>1.152170538902283</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3977171182632446</v>
+        <v>3.561823129653931</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7464249134063721</v>
+        <v>3.127958059310913</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5618149638175964</v>
+        <v>3.357651233673096</v>
       </c>
     </row>
     <row r="20">
@@ -1040,28 +1040,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7757646122465396</v>
+        <v>-0.02257449890778496</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1407993055701374</v>
+        <v>-10.51001009701293</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7240091288104369</v>
+        <v>-5.361365681931057</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6367858207949704</v>
+        <v>-7.079740132911024</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2481625080108643</v>
+        <v>1.131688714027405</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4064590930938721</v>
+        <v>3.473749160766602</v>
       </c>
       <c r="H20" t="n">
-        <v>0.610683262348175</v>
+        <v>2.973451614379883</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5025647878646851</v>
+        <v>3.238315343856812</v>
       </c>
     </row>
     <row r="21">
@@ -1071,28 +1071,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7908348858263438</v>
+        <v>0.05106327205737293</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1390345098080514</v>
+        <v>-10.14789594023329</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7876686078068283</v>
+        <v>-4.056410488568249</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6843732485959741</v>
+        <v>-6.219196892755166</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2314841449260712</v>
+        <v>1.050193428993225</v>
       </c>
       <c r="G21" t="n">
-        <v>0.407293975353241</v>
+        <v>3.364462375640869</v>
       </c>
       <c r="H21" t="n">
-        <v>0.469824343919754</v>
+        <v>2.363484859466553</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4367198944091797</v>
+        <v>2.893414258956909</v>
       </c>
     </row>
     <row r="22">
@@ -1102,152 +1102,121 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8004168965190055</v>
+        <v>0.07919627605960333</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1253829064937965</v>
+        <v>-9.917223758639839</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8369043475917871</v>
+        <v>-3.676986065496357</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7189543885314333</v>
+        <v>-5.919003041120866</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2208796888589859</v>
+        <v>1.019058346748352</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4137521088123322</v>
+        <v>3.294844627380371</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3608807325363159</v>
+        <v>2.186133146286011</v>
       </c>
       <c r="I22" t="n">
-        <v>0.388871431350708</v>
+        <v>2.773098230361938</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_9_3_3</t>
+          <t>model_9_3_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8044331771251859</v>
+        <v>0.2223464636237602</v>
       </c>
       <c r="C23" t="n">
-        <v>0.09084615902946025</v>
+        <v>-7.679985552177822</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8717958485955896</v>
+        <v>-2.234330297006648</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7389605261926717</v>
+        <v>-4.235363601288164</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2164348512887955</v>
+        <v>0.8606333136558533</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4300903081893921</v>
+        <v>2.619641065597534</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2836765050888062</v>
+        <v>1.511801838874817</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3611897528171539</v>
+        <v>2.098304748535156</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_9_3_2</t>
+          <t>model_9_3_3</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8071143531526404</v>
+        <v>0.2589132038618094</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0569671673515052</v>
+        <v>-7.226364267672183</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9008905414687007</v>
+        <v>-2.416041297212084</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7547235482224003</v>
+        <v>-4.154253816728081</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2134675681591034</v>
+        <v>0.820164680480957</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4461172819137573</v>
+        <v>2.482736825942993</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2192988693714142</v>
+        <v>1.596737861633301</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3393790721893311</v>
+        <v>2.065796375274658</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_9_3_1</t>
+          <t>model_9_3_0</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8104998574049519</v>
+        <v>0.3583886394316547</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04497355766432687</v>
+        <v>-1.579100324131243</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9251494198804817</v>
+        <v>-1.148739557365386</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7708084103490241</v>
+        <v>-1.207436167593781</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2097208201885223</v>
+        <v>0.7100747227668762</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4517910778522491</v>
+        <v>0.7783787846565247</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1656213998794556</v>
+        <v>1.004371285438538</v>
       </c>
       <c r="I25" t="n">
-        <v>0.317123144865036</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_9_3_0</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.8148506133571896</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.06810739169870172</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.9471413175350578</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.7915458234633559</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.2049057930707932</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.4408472180366516</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.1169600710272789</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.2884295880794525</v>
+        <v>0.8847281336784363</v>
       </c>
     </row>
   </sheetData>
